--- a/Explicacion.xlsx
+++ b/Explicacion.xlsx
@@ -53,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,6 +63,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,7 +680,7 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
       <c r="I5" s="1">
